--- a/Yoda Behavior Analysis.xlsx
+++ b/Yoda Behavior Analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="486">
   <si>
     <t xml:space="preserve">Participant</t>
   </si>
@@ -103,6 +103,9 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
+    <t xml:space="preserve">Did not hold steering wheel</t>
+  </si>
+  <si>
     <t xml:space="preserve">yes</t>
   </si>
   <si>
@@ -1024,6 +1027,48 @@
     <t xml:space="preserve">RespCam_084V2_FaceRecording-1_(30,MALE,1059).wmv</t>
   </si>
   <si>
+    <t xml:space="preserve">Participant did not hold the steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant didn't Notice Road Sign.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant held the steering wheel when the car got close to the pylons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked to both sides. Did not hold the steering wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant held the steering wheel and stopped the car before it could deviate from course.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked both ways. Did not hold steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked left. Did not hold steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noticed the bicyclist. Did not hold steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">look both sides. Did not hold steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant noticed road sign</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant did not hold the steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looked both ways before the event . Did not hold the steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Did not hold the steering wheel. Near Success</t>
+  </si>
+  <si>
     <t xml:space="preserve">Yoda 085 - Yoda 085 - 2019-01-25 15-24-50</t>
   </si>
   <si>
@@ -1105,9 +1150,6 @@
     <t xml:space="preserve">Exhibited sleepy behavior throughout. Almost slept during the event. Noticed and got surprised by the bicycle rider. Did not touch steering wheel at all.</t>
   </si>
   <si>
-    <t xml:space="preserve">look both sides. Did not hold steering wheel.</t>
-  </si>
-  <si>
     <t xml:space="preserve">did not touch steering wheel</t>
   </si>
   <si>
@@ -1144,9 +1186,6 @@
     <t xml:space="preserve">Use 88 for the first three events</t>
   </si>
   <si>
-    <t xml:space="preserve">Participant did not hold the steering wheel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Did not touch the steering wheel.</t>
   </si>
   <si>
@@ -1168,15 +1207,9 @@
     <t xml:space="preserve">RespCam_089_FaceRecording-1_(0,MALE,1069).wmv</t>
   </si>
   <si>
-    <t xml:space="preserve">Did not hold steering wheel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Participant did not hold steering wheel. Reacted after the event.</t>
   </si>
   <si>
-    <t xml:space="preserve">Looked to both sides. Did not hold the steering wheel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Noticed the pedestrian, did not touch the steering wheel.</t>
   </si>
   <si>
@@ -1207,16 +1240,16 @@
     <t xml:space="preserve">RespCam_090_FaceRecording-1_(0,FEMALE,1070).wmv</t>
   </si>
   <si>
-    <t xml:space="preserve">Participant transferred control as soon as she saw the rocks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant did not hold the steering wheel.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant disengaged automation ahead of time and drove manually as soon as she saw the road sign.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watched vigilantly. Did not hold the steering wheel.</t>
+    <t xml:space="preserve">Participant transferred control as soon as she saw the rocks. Held the lower part of the steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Held the lower part of the steering wheel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participant disengaged automation ahead of time and drove manually as soon as she saw the road sign. Held the lower part of the steering wheel before that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watched vigilantly. Held the lower part of the steering wheel.</t>
   </si>
   <si>
     <t xml:space="preserve">Noticed pedestrian. Was ready to take over control with hands close to steering wheel.</t>
@@ -1270,25 +1303,7 @@
     <t xml:space="preserve">Held steering wheel wih one hand.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Participant was sleepy during the time he was supposed to notice the sign. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Held steering wheel with one hand. </t>
-    </r>
+    <t xml:space="preserve">Participant was sleepy during the time he was supposed to notice the sign. Held steering wheel with one hand. </t>
   </si>
   <si>
     <t xml:space="preserve">Use the remainder from 932. Sim crashed here for 93. Took trial 2 in 932.</t>
@@ -1301,9 +1316,6 @@
   </si>
   <si>
     <t xml:space="preserve">Held Steering wheel with one hand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participant didn't Notice Road Sign.</t>
   </si>
   <si>
     <t xml:space="preserve">Participant held the steering wheel with one hand and tried to steer away, but couldn’t avoid hitting trees.</t>
@@ -1544,7 +1556,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1584,13 +1596,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="1"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -1601,7 +1607,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1634,6 +1640,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFCE181E"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7A0CB"/>
+        <bgColor rgb="FFF7A19A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDFCCE4"/>
         <bgColor rgb="FFD9D2E9"/>
       </patternFill>
@@ -1642,12 +1660,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF7A19A"/>
         <bgColor rgb="FFFF8080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC7A0CB"/>
-        <bgColor rgb="FFF7A19A"/>
       </patternFill>
     </fill>
   </fills>
@@ -1685,7 +1697,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1726,15 +1738,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1742,31 +1790,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1787,7 +1815,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1851,12 +1879,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AO1048576"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F64" activeCellId="0" sqref="F64"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="45:45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1864,7 +1892,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="50.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="62.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.3"/>
@@ -1874,19 +1902,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="48.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="13" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="43.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="43.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="46.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="31.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="56.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="34.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="34.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="52.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="37.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="37.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="22.69"/>
@@ -1898,7 +1926,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="49.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="195.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="195.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="41" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="14.43"/>
   </cols>
@@ -1969,12 +1997,12 @@
       </c>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
       <c r="AN1" s="2" t="s">
         <v>16</v>
       </c>
@@ -2114,7 +2142,7 @@
         <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>26</v>
@@ -2126,10 +2154,10 @@
         <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -2164,47 +2192,47 @@
         <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="K4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="4"/>
       <c r="P4" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
@@ -2230,7 +2258,7 @@
       <c r="AL4" s="6"/>
       <c r="AM4" s="6"/>
       <c r="AN4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,37 +2266,37 @@
         <v>92</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -2298,7 +2326,7 @@
       <c r="AL5" s="6"/>
       <c r="AM5" s="6"/>
       <c r="AN5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2306,19 +2334,19 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>26</v>
@@ -2330,10 +2358,10 @@
         <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>26</v>
@@ -2348,10 +2376,10 @@
         <v>26</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R6" s="2" t="s">
         <v>26</v>
@@ -2372,13 +2400,13 @@
         <v>24</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Y6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA6" s="2" t="s">
         <v>26</v>
@@ -2393,32 +2421,32 @@
         <v>24</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AF6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AI6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,23 +2454,23 @@
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2450,40 +2478,40 @@
         <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>26</v>
@@ -2492,19 +2520,19 @@
         <v>24</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AA7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>26</v>
@@ -2513,32 +2541,32 @@
         <v>24</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AF7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2546,19 +2574,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>26</v>
@@ -2570,28 +2598,28 @@
         <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R8" s="2" t="s">
         <v>26</v>
@@ -2612,7 +2640,7 @@
         <v>24</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Y8" s="2" t="s">
         <v>26</v>
@@ -2630,7 +2658,7 @@
         <v>26</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE8" s="2" t="s">
         <v>26</v>
@@ -2640,10 +2668,10 @@
       </c>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ8" s="2" t="s">
         <v>24</v>
@@ -2652,13 +2680,13 @@
         <v>26</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2666,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>26</v>
@@ -2687,40 +2715,40 @@
         <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>26</v>
@@ -2729,19 +2757,19 @@
         <v>24</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AA9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AC9" s="2" t="s">
         <v>26</v>
@@ -2750,14 +2778,14 @@
         <v>24</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" s="2" t="s">
         <v>26</v>
@@ -2766,16 +2794,16 @@
         <v>24</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,22 +2811,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>26</v>
@@ -2807,40 +2835,40 @@
         <v>24</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="T10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V10" s="2" t="s">
         <v>26</v>
@@ -2849,19 +2877,19 @@
         <v>24</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA10" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC10" s="2" t="s">
         <v>26</v>
@@ -2870,14 +2898,14 @@
         <v>24</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>26</v>
@@ -2889,13 +2917,13 @@
         <v>26</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,19 +2931,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>26</v>
@@ -2927,19 +2955,19 @@
         <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>26</v>
@@ -2948,19 +2976,19 @@
         <v>24</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>26</v>
@@ -2969,13 +2997,13 @@
         <v>24</v>
       </c>
       <c r="X11" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA11" s="2" t="s">
         <v>26</v>
@@ -2996,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH11" s="2" t="s">
         <v>26</v>
@@ -3005,19 +3033,19 @@
         <v>26</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,13 +3053,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>26</v>
@@ -3040,7 +3068,7 @@
         <v>24</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>26</v>
@@ -3049,19 +3077,19 @@
         <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>26</v>
@@ -3070,13 +3098,13 @@
         <v>24</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>26</v>
@@ -3091,19 +3119,19 @@
         <v>24</v>
       </c>
       <c r="X12" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AA12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AC12" s="2" t="s">
         <v>26</v>
@@ -3112,16 +3140,16 @@
         <v>24</v>
       </c>
       <c r="AE12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF12" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AI12" s="2" t="s">
         <v>26</v>
@@ -3133,13 +3161,13 @@
         <v>26</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3147,22 +3175,22 @@
         <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>26</v>
@@ -3171,40 +3199,40 @@
         <v>24</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="V13" s="2" t="s">
         <v>26</v>
@@ -3213,37 +3241,37 @@
         <v>24</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Y13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AI13" s="2" t="s">
         <v>26</v>
@@ -3252,16 +3280,16 @@
         <v>24</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,13 +3297,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>26</v>
@@ -3293,19 +3321,19 @@
         <v>24</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>26</v>
@@ -3314,13 +3342,13 @@
         <v>24</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>26</v>
@@ -3335,19 +3363,19 @@
         <v>24</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Y14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>26</v>
@@ -3362,7 +3390,7 @@
         <v>26</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH14" s="2" t="s">
         <v>26</v>
@@ -3374,16 +3402,16 @@
         <v>24</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3391,7 +3419,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>24</v>
@@ -3415,13 +3443,13 @@
         <v>24</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -3451,7 +3479,7 @@
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
       <c r="AN15" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3459,13 +3487,13 @@
         <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>26</v>
@@ -3474,7 +3502,7 @@
         <v>24</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>26</v>
@@ -3483,19 +3511,19 @@
         <v>24</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>26</v>
@@ -3510,7 +3538,7 @@
         <v>26</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>26</v>
@@ -3525,19 +3553,19 @@
         <v>24</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA16" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>26</v>
@@ -3552,7 +3580,7 @@
         <v>26</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH16" s="2" t="s">
         <v>26</v>
@@ -3564,16 +3592,16 @@
         <v>24</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,22 +3609,22 @@
         <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>26</v>
@@ -3605,19 +3633,19 @@
         <v>24</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>26</v>
@@ -3626,19 +3654,19 @@
         <v>24</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V17" s="2" t="s">
         <v>26</v>
@@ -3647,19 +3675,19 @@
         <v>24</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>26</v>
@@ -3668,16 +3696,16 @@
         <v>24</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AI17" s="2" t="s">
         <v>26</v>
@@ -3689,13 +3717,13 @@
         <v>26</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3703,7 +3731,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>24</v>
@@ -3718,7 +3746,7 @@
         <v>24</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>26</v>
@@ -3727,61 +3755,61 @@
         <v>24</v>
       </c>
       <c r="J18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="T18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AA18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>26</v>
@@ -3796,10 +3824,10 @@
         <v>26</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AI18" s="2" t="s">
         <v>26</v>
@@ -3808,16 +3836,16 @@
         <v>24</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3825,7 +3853,7 @@
         <v>7</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>24</v>
@@ -3849,19 +3877,19 @@
         <v>24</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>26</v>
@@ -3876,7 +3904,7 @@
         <v>26</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T19" s="2" t="s">
         <v>26</v>
@@ -3891,19 +3919,19 @@
         <v>24</v>
       </c>
       <c r="X19" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC19" s="2" t="s">
         <v>26</v>
@@ -3912,16 +3940,16 @@
         <v>24</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI19" s="2" t="s">
         <v>26</v>
@@ -3930,16 +3958,16 @@
         <v>24</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN19" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,13 +3975,13 @@
         <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>26</v>
@@ -3974,19 +4002,19 @@
         <v>26</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>24</v>
@@ -4013,13 +4041,13 @@
         <v>24</v>
       </c>
       <c r="X20" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Y20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA20" s="2" t="s">
         <v>26</v>
@@ -4040,10 +4068,10 @@
         <v>26</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AI20" s="2" t="s">
         <v>26</v>
@@ -4052,16 +4080,16 @@
         <v>24</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4069,10 +4097,10 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>26</v>
@@ -4093,10 +4121,10 @@
         <v>24</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>26</v>
@@ -4105,7 +4133,7 @@
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>26</v>
@@ -4114,19 +4142,19 @@
         <v>24</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U21" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V21" s="2" t="s">
         <v>26</v>
@@ -4135,19 +4163,19 @@
         <v>24</v>
       </c>
       <c r="X21" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>26</v>
@@ -4162,10 +4190,10 @@
         <v>26</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI21" s="2" t="s">
         <v>26</v>
@@ -4174,16 +4202,16 @@
         <v>24</v>
       </c>
       <c r="AK21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AL21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM21" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN21" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4191,23 +4219,23 @@
         <v>12</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>173</v>
-      </c>
       <c r="H22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4215,61 +4243,61 @@
         <v>24</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q22" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N22" s="2" t="s">
+      <c r="R22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="O22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q22" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S22" s="2" t="s">
+      <c r="V22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="T22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="Y22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z22" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="AA22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>26</v>
@@ -4278,16 +4306,16 @@
         <v>24</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF22" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH22" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AI22" s="2" t="s">
         <v>26</v>
@@ -4299,13 +4327,13 @@
         <v>26</v>
       </c>
       <c r="AL22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM22" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4313,43 +4341,43 @@
         <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>26</v>
@@ -4358,19 +4386,19 @@
         <v>24</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="V23" s="2" t="s">
         <v>26</v>
@@ -4379,19 +4407,19 @@
         <v>24</v>
       </c>
       <c r="X23" s="8" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z23" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AC23" s="2" t="s">
         <v>26</v>
@@ -4400,16 +4428,16 @@
         <v>24</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF23" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG23" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH23" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AI23" s="2" t="s">
         <v>26</v>
@@ -4418,16 +4446,16 @@
         <v>24</v>
       </c>
       <c r="AK23" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL23" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM23" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN23" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4435,19 +4463,19 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>26</v>
@@ -4456,43 +4484,43 @@
         <v>26</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J24" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="T24" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>194</v>
-      </c>
       <c r="U24" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V24" s="2" t="s">
         <v>26</v>
@@ -4501,13 +4529,13 @@
         <v>24</v>
       </c>
       <c r="X24" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z24" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA24" s="2" t="s">
         <v>26</v>
@@ -4522,19 +4550,19 @@
         <v>24</v>
       </c>
       <c r="AE24" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF24" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH24" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AI24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ24" s="2" t="s">
         <v>24</v>
@@ -4543,13 +4571,13 @@
         <v>26</v>
       </c>
       <c r="AL24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM24" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN24" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4557,64 +4585,64 @@
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="R25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S25" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U25" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V25" s="2" t="s">
         <v>26</v>
@@ -4623,25 +4651,25 @@
         <v>24</v>
       </c>
       <c r="X25" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Y25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z25" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AA25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB25" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC25" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE25" s="2" t="s">
         <v>26</v>
@@ -4650,10 +4678,10 @@
         <v>26</v>
       </c>
       <c r="AG25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH25" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AI25" s="2" t="s">
         <v>26</v>
@@ -4662,13 +4690,13 @@
         <v>24</v>
       </c>
       <c r="AK25" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,43 +4704,43 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>26</v>
@@ -4721,19 +4749,19 @@
         <v>24</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="R26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="V26" s="2" t="s">
         <v>26</v>
@@ -4742,19 +4770,19 @@
         <v>24</v>
       </c>
       <c r="X26" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AA26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>26</v>
@@ -4763,34 +4791,34 @@
         <v>24</v>
       </c>
       <c r="AE26" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH26" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AF26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG26" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH26" s="8" t="s">
-        <v>218</v>
-      </c>
       <c r="AI26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ26" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AL26" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM26" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN26" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4798,7 +4826,7 @@
         <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4806,64 +4834,64 @@
         <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V28" s="2" t="s">
         <v>26</v>
@@ -4872,7 +4900,7 @@
         <v>24</v>
       </c>
       <c r="X28" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Y28" s="2" t="s">
         <v>26</v>
@@ -4899,10 +4927,10 @@
         <v>26</v>
       </c>
       <c r="AG28" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI28" s="2" t="s">
         <v>26</v>
@@ -4911,16 +4939,16 @@
         <v>24</v>
       </c>
       <c r="AK28" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM28" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN28" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,10 +4956,10 @@
         <v>47</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>26</v>
@@ -4940,7 +4968,7 @@
         <v>26</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>26</v>
@@ -4949,28 +4977,28 @@
         <v>26</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q29" s="2" t="s">
         <v>26</v>
@@ -4979,7 +5007,7 @@
         <v>26</v>
       </c>
       <c r="S29" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T29" s="2" t="s">
         <v>26</v>
@@ -4994,7 +5022,7 @@
         <v>24</v>
       </c>
       <c r="X29" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y29" s="2" t="s">
         <v>26</v>
@@ -5021,7 +5049,7 @@
         <v>26</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH29" s="2" t="s">
         <v>26</v>
@@ -5033,13 +5061,13 @@
         <v>24</v>
       </c>
       <c r="AK29" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL29" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM29" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5047,10 +5075,10 @@
         <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>26</v>
@@ -5059,7 +5087,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>26</v>
@@ -5068,28 +5096,28 @@
         <v>26</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="2" t="s">
         <v>26</v>
@@ -5098,7 +5126,7 @@
         <v>26</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T30" s="2" t="s">
         <v>26</v>
@@ -5110,16 +5138,16 @@
         <v>26</v>
       </c>
       <c r="W30" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X30" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y30" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z30" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA30" s="2" t="s">
         <v>26</v>
@@ -5140,10 +5168,10 @@
         <v>26</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH30" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI30" s="2" t="s">
         <v>26</v>
@@ -5152,16 +5180,16 @@
         <v>24</v>
       </c>
       <c r="AK30" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AL30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN30" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5169,19 +5197,19 @@
         <v>46</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>26</v>
@@ -5190,28 +5218,28 @@
         <v>26</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q31" s="2" t="s">
         <v>26</v>
@@ -5220,40 +5248,40 @@
         <v>26</v>
       </c>
       <c r="S31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U31" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="X31" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Y31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z31" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>26</v>
@@ -5262,28 +5290,28 @@
         <v>26</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH31" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ31" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM31" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5291,43 +5319,43 @@
         <v>60</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>26</v>
@@ -5342,7 +5370,7 @@
         <v>26</v>
       </c>
       <c r="S32" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>26</v>
@@ -5357,13 +5385,13 @@
         <v>24</v>
       </c>
       <c r="X32" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Y32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z32" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA32" s="2" t="s">
         <v>26</v>
@@ -5375,7 +5403,7 @@
         <v>26</v>
       </c>
       <c r="AD32" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE32" s="2" t="s">
         <v>26</v>
@@ -5384,147 +5412,147 @@
         <v>26</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH32" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ32" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK32" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AL32" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM32" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X33" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z33" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG33" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH33" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AI33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ33" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="S33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="W33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="X33" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB33" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="AE33" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="AF33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH33" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AI33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ33" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="AK33" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="AL33" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM33" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="AN33" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5532,10 +5560,10 @@
         <v>57</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>26</v>
@@ -5544,7 +5572,7 @@
         <v>26</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -5553,22 +5581,22 @@
         <v>26</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>26</v>
@@ -5577,19 +5605,19 @@
         <v>24</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="V34" s="2" t="s">
         <v>26</v>
@@ -5598,25 +5626,25 @@
         <v>24</v>
       </c>
       <c r="X34" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z34" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD34" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE34" s="2" t="s">
         <v>26</v>
@@ -5625,28 +5653,28 @@
         <v>26</v>
       </c>
       <c r="AG34" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH34" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ34" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AL34" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM34" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN34" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,64 +5682,64 @@
         <v>64</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="R35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V35" s="2" t="s">
         <v>26</v>
@@ -5720,55 +5748,55 @@
         <v>24</v>
       </c>
       <c r="X35" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Y35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z35" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC35" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE35" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH35" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AI35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ35" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK35" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM35" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN35" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5776,10 +5804,10 @@
         <v>71</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>26</v>
@@ -5788,7 +5816,7 @@
         <v>26</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -5797,13 +5825,13 @@
         <v>26</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L36" s="2" t="s">
         <v>26</v>
@@ -5812,28 +5840,28 @@
         <v>26</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="T36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="V36" s="2" t="s">
         <v>26</v>
@@ -5842,25 +5870,25 @@
         <v>24</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AC36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>26</v>
@@ -5869,28 +5897,28 @@
         <v>26</v>
       </c>
       <c r="AG36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI36" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ36" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK36" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL36" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM36" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN36" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5898,43 +5926,43 @@
         <v>69</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>26</v>
@@ -5943,19 +5971,19 @@
         <v>24</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S37" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V37" s="2" t="s">
         <v>26</v>
@@ -5964,55 +5992,55 @@
         <v>24</v>
       </c>
       <c r="X37" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y37" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AC37" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE37" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF37" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AG37" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH37" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AI37" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AJ37" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK37" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL37" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN37" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,121 +6048,121 @@
         <v>67</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="W38" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="X38" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Y38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z38" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AA38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AD38" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF38" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH38" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="AI38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ38" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="AK38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="AI38" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ38" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK38" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="AL38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM38" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AN38" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6142,49 +6170,49 @@
         <v>66</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q39" s="2" t="s">
         <v>26</v>
@@ -6205,16 +6233,16 @@
         <v>26</v>
       </c>
       <c r="W39" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y39" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z39" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AA39" s="2" t="s">
         <v>26</v>
@@ -6235,7 +6263,7 @@
         <v>26</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH39" s="2" t="s">
         <v>26</v>
@@ -6247,13 +6275,13 @@
         <v>24</v>
       </c>
       <c r="AK39" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL39" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM39" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,121 +6289,121 @@
         <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="R40" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="S40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="T40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U40" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="V40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="W40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X40" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB40" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG40" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH40" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ40" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK40" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="R40" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="S40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="T40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="U40" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="V40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="W40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="X40" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z40" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AA40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB40" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="AC40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD40" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG40" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH40" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="AI40" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ40" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK40" s="9" t="s">
-        <v>303</v>
-      </c>
       <c r="AL40" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM40" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN40" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6383,10 +6411,10 @@
         <v>76</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>26</v>
@@ -6395,7 +6423,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>26</v>
@@ -6404,13 +6432,13 @@
         <v>26</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L41" s="2" t="s">
         <v>26</v>
@@ -6419,22 +6447,22 @@
         <v>26</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="R41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>26</v>
@@ -6449,19 +6477,19 @@
         <v>24</v>
       </c>
       <c r="X41" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AC41" s="2" t="s">
         <v>26</v>
@@ -6476,16 +6504,16 @@
         <v>26</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI41" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ41" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AK41" s="2" t="s">
         <v>26</v>
@@ -6497,7 +6525,7 @@
         <v>26</v>
       </c>
       <c r="AN41" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6505,49 +6533,49 @@
         <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q42" s="2" t="s">
         <v>26</v>
@@ -6562,28 +6590,28 @@
         <v>26</v>
       </c>
       <c r="U42" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="V42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="W42" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Y42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AA42" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB42" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AC42" s="2" t="s">
         <v>26</v>
@@ -6598,21 +6626,21 @@
         <v>26</v>
       </c>
       <c r="AG42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH42" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AI42" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL42" s="6"/>
       <c r="AM42" s="6"/>
       <c r="AN42" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6620,10 +6648,10 @@
         <v>802</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>26</v>
@@ -6632,7 +6660,7 @@
         <v>26</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -6641,13 +6669,13 @@
         <v>26</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L43" s="2" t="s">
         <v>26</v>
@@ -6656,7 +6684,7 @@
         <v>26</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>26</v>
@@ -6671,13 +6699,13 @@
         <v>26</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="T43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U43" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="V43" s="2" t="s">
         <v>26</v>
@@ -6686,19 +6714,19 @@
         <v>24</v>
       </c>
       <c r="X43" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Y43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z43" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AA43" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AC43" s="2" t="s">
         <v>26</v>
@@ -6713,7 +6741,7 @@
         <v>26</v>
       </c>
       <c r="AG43" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH43" s="2" t="s">
         <v>26</v>
@@ -6725,16 +6753,16 @@
         <v>24</v>
       </c>
       <c r="AK43" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM43" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN43" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6742,28 +6770,28 @@
         <v>81</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
@@ -6796,86 +6824,190 @@
       <c r="AL44" s="6"/>
       <c r="AM44" s="6"/>
       <c r="AN44" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="n">
+    <row r="45" s="13" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="10" t="n">
         <v>84</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="B45" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I45" s="6" t="s">
+      <c r="C45" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
-      <c r="AB45" s="6"/>
-      <c r="AC45" s="6"/>
-      <c r="AD45" s="6"/>
-      <c r="AE45" s="6"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6"/>
-      <c r="AH45" s="6"/>
-      <c r="AI45" s="6"/>
-      <c r="AJ45" s="6"/>
-      <c r="AK45" s="6"/>
-      <c r="AL45" s="6"/>
-      <c r="AM45" s="6"/>
-      <c r="AN45" s="8" t="s">
+      <c r="H45" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>332</v>
       </c>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="12"/>
+      <c r="AN45" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="AMJ45" s="14"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>842</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="11"/>
-      <c r="X46" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N46" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U46" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="V46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X46" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH46" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AI46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ46" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK46" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="AL46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM46" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="AN46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,43 +7015,43 @@
         <v>85</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>26</v>
@@ -6946,19 +7078,19 @@
         <v>26</v>
       </c>
       <c r="W47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X47" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Z47" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="AA47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB47" s="2" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="AC47" s="2" t="s">
         <v>26</v>
@@ -6973,28 +7105,28 @@
         <v>26</v>
       </c>
       <c r="AG47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH47" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AI47" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ47" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK47" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AL47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM47" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AN47" s="2" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7002,43 +7134,43 @@
         <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>26</v>
@@ -7047,19 +7179,19 @@
         <v>24</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="R48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="T48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="U48" s="2" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="V48" s="2" t="s">
         <v>26</v>
@@ -7068,19 +7200,19 @@
         <v>24</v>
       </c>
       <c r="X48" s="8" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="Y48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="Z48" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="AA48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AB48" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="AC48" s="2" t="s">
         <v>26</v>
@@ -7089,25 +7221,25 @@
         <v>24</v>
       </c>
       <c r="AE48" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="AF48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AG48" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH48" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AI48" s="2" t="s">
         <v>26</v>
       </c>
       <c r="AJ48" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK48" s="2" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="AL48" s="2" t="s">
         <v>26</v>
@@ -7116,7 +7248,7 @@
         <v>26</v>
       </c>
       <c r="AN48" s="2" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7124,187 +7256,187 @@
         <v>86</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I49" s="12" t="s">
-        <v>270</v>
+      <c r="I49" s="17" t="s">
+        <v>271</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P49" s="13" t="s">
-        <v>356</v>
+        <v>366</v>
+      </c>
+      <c r="P49" s="1" t="s">
+        <v>371</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="S49" s="1" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="T49" s="1" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="V49" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W49" s="14" t="s">
-        <v>177</v>
+      <c r="W49" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="X49" s="1" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="Y49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z49" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="AA49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB49" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="AC49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD49" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE49" s="1" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="AF49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG49" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH49" s="1" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="AI49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ49" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AK49" s="1" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="AL49" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN49" s="1" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="B50" s="15" t="s">
-        <v>367</v>
+      <c r="B50" s="19" t="s">
+        <v>381</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L50" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
-      <c r="O50" s="16"/>
-      <c r="P50" s="16"/>
-      <c r="Q50" s="16"/>
-      <c r="R50" s="16"/>
-      <c r="S50" s="16"/>
-      <c r="T50" s="16"/>
-      <c r="U50" s="16"/>
-      <c r="V50" s="16"/>
-      <c r="W50" s="16"/>
-      <c r="X50" s="16"/>
-      <c r="Y50" s="16"/>
-      <c r="Z50" s="16"/>
-      <c r="AA50" s="16"/>
-      <c r="AB50" s="16"/>
-      <c r="AC50" s="16"/>
-      <c r="AD50" s="16"/>
-      <c r="AE50" s="16"/>
-      <c r="AF50" s="16"/>
-      <c r="AG50" s="16"/>
-      <c r="AH50" s="16"/>
-      <c r="AI50" s="16"/>
-      <c r="AJ50" s="16"/>
-      <c r="AK50" s="16"/>
-      <c r="AL50" s="16"/>
-      <c r="AM50" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="L50" s="20" t="s">
+        <v>385</v>
+      </c>
+      <c r="M50" s="20"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="20"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="20"/>
+      <c r="R50" s="20"/>
+      <c r="S50" s="20"/>
+      <c r="T50" s="20"/>
+      <c r="U50" s="20"/>
+      <c r="V50" s="20"/>
+      <c r="W50" s="20"/>
+      <c r="X50" s="20"/>
+      <c r="Y50" s="20"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
+      <c r="AB50" s="20"/>
+      <c r="AC50" s="20"/>
+      <c r="AD50" s="20"/>
+      <c r="AE50" s="20"/>
+      <c r="AF50" s="20"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="20"/>
+      <c r="AI50" s="20"/>
+      <c r="AJ50" s="20"/>
+      <c r="AK50" s="20"/>
+      <c r="AL50" s="20"/>
+      <c r="AM50" s="20"/>
       <c r="AN50" s="2"/>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7312,105 +7444,105 @@
         <v>882</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="P51" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q51" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>373</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="1" t="s">
+      <c r="R51" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U51" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="M51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N51" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q51" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="R51" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="S51" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="T51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U51" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="V51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W51" s="14" t="s">
+      <c r="W51" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="X51" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="Y51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB51" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="X51" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="Y51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z51" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA51" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB51" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="AC51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD51" s="18" t="s">
+      <c r="AD51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AF51" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG51" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH51" s="1" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="AI51" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ51" s="18" t="s">
+      <c r="AJ51" s="16" t="s">
         <v>24</v>
       </c>
       <c r="AK51" s="1" t="s">
-        <v>379</v>
+        <v>392</v>
       </c>
       <c r="AL51" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM51" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN51" s="1" t="s">
-        <v>380</v>
+        <v>393</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7418,43 +7550,43 @@
         <v>89</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>381</v>
+        <v>394</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="O52" s="1" t="s">
         <v>26</v>
@@ -7463,19 +7595,19 @@
         <v>24</v>
       </c>
       <c r="Q52" s="1" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S52" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U52" s="1" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="V52" s="1" t="s">
         <v>26</v>
@@ -7484,287 +7616,288 @@
         <v>24</v>
       </c>
       <c r="X52" s="1" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="Y52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z52" s="1" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="AA52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB52" s="1" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="AC52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD52" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE52" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="AF52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH52" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="AI52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK52" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="AL52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN52" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="53" s="22" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="22" t="n">
+        <v>90</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="M53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="N53" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="P53" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q53" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="R53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="S53" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="T53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="U53" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="V53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="W53" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="AE52" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="AF52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH52" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="AI52" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ52" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK52" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="AL52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AN52" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="M53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="O53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q53" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="R53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="T53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="U53" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="V53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W53" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z53" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AA53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB53" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AC53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD53" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="AE53" s="19" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AG53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH53" s="19" t="s">
-        <v>404</v>
-      </c>
-      <c r="AI53" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ53" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK53" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="AL53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AN53" s="1" t="s">
-        <v>406</v>
-      </c>
+      <c r="X53" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z53" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB53" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="AC53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD53" s="22" t="s">
+        <v>389</v>
+      </c>
+      <c r="AE53" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AG53" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH53" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI53" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ53" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK53" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="AL53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM53" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="AN53" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="AMJ53" s="23"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="14" t="s">
-        <v>161</v>
+      <c r="F54" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I54" s="14" t="s">
-        <v>248</v>
+      <c r="I54" s="18" t="s">
+        <v>249</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L54" s="19" t="s">
-        <v>410</v>
+        <v>28</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N54" s="19" t="s">
-        <v>410</v>
+      <c r="N54" s="1" t="s">
+        <v>421</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P54" s="14" t="s">
+      <c r="P54" s="18" t="s">
         <v>24</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="R54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S54" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U54" s="1" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="V54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W54" s="14" t="s">
-        <v>376</v>
+      <c r="W54" s="18" t="s">
+        <v>389</v>
       </c>
       <c r="X54" s="1" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="Y54" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z54" s="1" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AA54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB54" s="19" t="s">
-        <v>415</v>
+      <c r="AB54" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="AC54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD54" s="18" t="s">
+      <c r="AD54" s="16" t="s">
         <v>24</v>
       </c>
       <c r="AE54" s="1" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="AF54" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG54" s="17" t="s">
-        <v>417</v>
-      </c>
-      <c r="AH54" s="17"/>
-      <c r="AI54" s="17"/>
-      <c r="AJ54" s="17"/>
-      <c r="AK54" s="17"/>
-      <c r="AL54" s="17"/>
-      <c r="AM54" s="17"/>
-      <c r="AN54" s="19" t="s">
-        <v>417</v>
+      <c r="AG54" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="AH54" s="21"/>
+      <c r="AI54" s="21"/>
+      <c r="AJ54" s="21"/>
+      <c r="AK54" s="21"/>
+      <c r="AL54" s="21"/>
+      <c r="AM54" s="21"/>
+      <c r="AN54" s="1" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7772,60 +7905,60 @@
         <v>932</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C55" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
-      <c r="K55" s="17"/>
-      <c r="L55" s="17"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="17"/>
-      <c r="O55" s="17"/>
-      <c r="P55" s="17"/>
-      <c r="Q55" s="17"/>
-      <c r="R55" s="17"/>
-      <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="17"/>
-      <c r="V55" s="17"/>
-      <c r="W55" s="17"/>
-      <c r="X55" s="17"/>
-      <c r="Y55" s="17"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="17"/>
-      <c r="AB55" s="17"/>
-      <c r="AC55" s="17"/>
-      <c r="AD55" s="17"/>
-      <c r="AE55" s="17"/>
-      <c r="AF55" s="17"/>
+        <v>429</v>
+      </c>
+      <c r="C55" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="21"/>
+      <c r="AA55" s="21"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
       <c r="AG55" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH55" s="1" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="AI55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ55" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="AL55" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM55" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7833,121 +7966,121 @@
         <v>94</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>408</v>
+        <v>433</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>408</v>
+      <c r="F56" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>419</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I56" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="J56" s="19" t="s">
-        <v>424</v>
+      <c r="I56" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P56" s="18" t="s">
-        <v>376</v>
+      <c r="P56" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="R56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S56" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U56" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="V56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="W56" s="1" t="s">
-        <v>376</v>
+        <v>389</v>
       </c>
       <c r="X56" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="Y56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z56" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="AA56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB56" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AC56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD56" s="14" t="s">
-        <v>376</v>
+      <c r="AD56" s="18" t="s">
+        <v>389</v>
       </c>
       <c r="AE56" s="1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="AF56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG56" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH56" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AI56" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ56" s="18" t="s">
-        <v>376</v>
+      <c r="AJ56" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="AL56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AM56" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN56" s="1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7955,121 +8088,121 @@
         <v>95</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="14" t="s">
-        <v>161</v>
+      <c r="F57" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="J57" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="K57" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="M57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P57" s="18" t="s">
-        <v>376</v>
+      <c r="P57" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="Q57" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S57" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="R57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>427</v>
-      </c>
       <c r="T57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U57" s="20" t="s">
-        <v>427</v>
+      <c r="U57" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="V57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="W57" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="X57" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z57" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="Y57" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z57" s="1" t="s">
-        <v>429</v>
-      </c>
       <c r="AA57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB57" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="AC57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD57" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE57" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AF57" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG57" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH57" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="AI57" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AJ57" s="18" t="s">
-        <v>376</v>
+      <c r="AJ57" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="AL57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM57" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN57" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8077,121 +8210,121 @@
         <v>96</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="18" t="s">
-        <v>376</v>
+      <c r="F58" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>382</v>
+        <v>27</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="O58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P58" s="18" t="s">
-        <v>376</v>
+      <c r="P58" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="Q58" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="R58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S58" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U58" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="V58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="W58" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="X58" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="Y58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z58" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="AA58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB58" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="AC58" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AD58" s="14" t="s">
-        <v>376</v>
+      <c r="AD58" s="18" t="s">
+        <v>389</v>
       </c>
       <c r="AE58" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="AF58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG58" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH58" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="AI58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ58" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="AL58" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM58" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN58" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8199,121 +8332,121 @@
         <v>97</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F59" s="18" t="s">
-        <v>376</v>
+      <c r="F59" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="O59" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P59" s="18" t="s">
-        <v>376</v>
+      <c r="P59" s="16" t="s">
+        <v>389</v>
       </c>
       <c r="Q59" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S59" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U59" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="V59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="W59" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="X59" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="Y59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z59" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="AA59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB59" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="AC59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD59" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE59" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="AF59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG59" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH59" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="AI59" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ59" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="AK59" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="AL59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM59" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN59" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8321,43 +8454,43 @@
         <v>98</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="O60" s="1" t="s">
         <v>26</v>
@@ -8366,127 +8499,127 @@
         <v>24</v>
       </c>
       <c r="Q60" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="R60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="S60" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="U60" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="V60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="W60" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="X60" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="Y60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="Z60" s="1" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="AA60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AB60" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="AC60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AD60" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AE60" s="1" t="s">
-        <v>396</v>
+        <v>345</v>
       </c>
       <c r="AF60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AG60" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AH60" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="AI60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AJ60" s="1" t="s">
-        <v>421</v>
+        <v>336</v>
       </c>
       <c r="AK60" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="AL60" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM60" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AN60" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21" t="s">
-        <v>475</v>
-      </c>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="21"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="21"/>
-      <c r="H77" s="21"/>
-      <c r="I77" s="21"/>
-      <c r="J77" s="21"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="21"/>
-      <c r="M77" s="21"/>
-      <c r="N77" s="21"/>
-      <c r="O77" s="21"/>
-      <c r="P77" s="21"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="21"/>
-      <c r="S77" s="21"/>
-      <c r="T77" s="21"/>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="21"/>
-      <c r="X77" s="21"/>
-      <c r="Y77" s="21"/>
-      <c r="Z77" s="21"/>
-      <c r="AA77" s="21"/>
-      <c r="AB77" s="21"/>
-      <c r="AC77" s="21"/>
-      <c r="AD77" s="21"/>
-      <c r="AE77" s="21"/>
-      <c r="AF77" s="21"/>
-      <c r="AG77" s="21"/>
-      <c r="AH77" s="21"/>
-      <c r="AI77" s="21"/>
-      <c r="AJ77" s="21"/>
-      <c r="AK77" s="21"/>
-      <c r="AL77" s="21"/>
-      <c r="AM77" s="21"/>
-      <c r="AN77" s="21"/>
-      <c r="AO77" s="21"/>
+      <c r="A77" s="25" t="s">
+        <v>485</v>
+      </c>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
+      <c r="K77" s="25"/>
+      <c r="L77" s="25"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="25"/>
+      <c r="S77" s="25"/>
+      <c r="T77" s="25"/>
+      <c r="U77" s="25"/>
+      <c r="V77" s="25"/>
+      <c r="W77" s="25"/>
+      <c r="X77" s="25"/>
+      <c r="Y77" s="25"/>
+      <c r="Z77" s="25"/>
+      <c r="AA77" s="25"/>
+      <c r="AB77" s="25"/>
+      <c r="AC77" s="25"/>
+      <c r="AD77" s="25"/>
+      <c r="AE77" s="25"/>
+      <c r="AF77" s="25"/>
+      <c r="AG77" s="25"/>
+      <c r="AH77" s="25"/>
+      <c r="AI77" s="25"/>
+      <c r="AJ77" s="25"/>
+      <c r="AK77" s="25"/>
+      <c r="AL77" s="25"/>
+      <c r="AM77" s="25"/>
+      <c r="AN77" s="25"/>
+      <c r="AO77" s="25"/>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
